--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-12.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-12.xlsx
@@ -79,10 +79,10 @@
     <t>Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
   </si>
   <si>
+    <t>Receptacion. Art. 456 Bis A.</t>
+  </si>
+  <si>
     <t>Apropiacion De Cables Tendido Electrico O De Comunicaciones.</t>
-  </si>
-  <si>
-    <t>Receptacion. Art. 456 Bis A.</t>
   </si>
   <si>
     <t>Robo Con Intimidacion.</t>
@@ -727,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1013,7 +1013,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
